--- a/10kl.xlsx
+++ b/10kl.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexT\Desktop\int-school\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="10 класс" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="10 класс" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,268 +27,243 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
-    <t xml:space="preserve">Фамилия, Имя</t>
+    <t>Фамилия, Имя</t>
   </si>
   <si>
-    <t xml:space="preserve">Класс</t>
+    <t>Класс</t>
   </si>
   <si>
-    <t xml:space="preserve">всего</t>
+    <t>всего</t>
   </si>
   <si>
-    <t xml:space="preserve">сентябрь</t>
+    <t>сентябрь</t>
   </si>
   <si>
-    <t xml:space="preserve">октябрь</t>
+    <t>октябрь</t>
   </si>
   <si>
-    <t xml:space="preserve">ноябрь</t>
+    <t>ноябрь</t>
   </si>
   <si>
-    <t xml:space="preserve">декабрь</t>
+    <t>декабрь</t>
   </si>
   <si>
-    <t xml:space="preserve">январь</t>
+    <t>январь</t>
   </si>
   <si>
-    <t xml:space="preserve">февраль</t>
+    <t>февраль</t>
   </si>
   <si>
-    <t xml:space="preserve">март</t>
+    <t>март</t>
   </si>
   <si>
-    <t xml:space="preserve">апрель</t>
+    <t>апрель</t>
   </si>
   <si>
-    <t xml:space="preserve">май</t>
+    <t>май</t>
   </si>
   <si>
-    <t xml:space="preserve">июнь</t>
+    <t>июнь</t>
   </si>
   <si>
-    <t xml:space="preserve">июль</t>
+    <t>июль</t>
   </si>
   <si>
-    <t xml:space="preserve">август</t>
+    <t>август</t>
   </si>
   <si>
-    <t xml:space="preserve">Пример</t>
+    <t>Пример</t>
   </si>
   <si>
-    <t xml:space="preserve">Алеев Мурат Дмитриевич</t>
+    <t>Алеев Мурат Дмитриевич</t>
   </si>
   <si>
-    <t xml:space="preserve">Алексеев Илья Сергеевич</t>
+    <t>Алексеев Илья Сергеевич</t>
   </si>
   <si>
-    <t xml:space="preserve">Архипова Анастасия Станиславовна</t>
+    <t>Архипова Анастасия Станиславовна</t>
   </si>
   <si>
-    <t xml:space="preserve">Балакшина Мария Евгеньевна</t>
+    <t>Балакшина Мария Евгеньевна</t>
   </si>
   <si>
-    <t xml:space="preserve">Барциц Никита Теймуразович</t>
+    <t>Барциц Никита Теймуразович</t>
   </si>
   <si>
-    <t xml:space="preserve">Бешкуров Михаил Борисович</t>
+    <t>Бешкуров Михаил Борисович</t>
   </si>
   <si>
-    <t xml:space="preserve">Бешкуров Тимофей Борисович</t>
+    <t>Бешкуров Тимофей Борисович</t>
   </si>
   <si>
-    <t xml:space="preserve">Блынская София Владимировна</t>
+    <t>Блынская София Владимировна</t>
   </si>
   <si>
-    <t xml:space="preserve">Богдан Дарья Александровна</t>
+    <t>Богдан Дарья Александровна</t>
   </si>
   <si>
-    <t xml:space="preserve">Браздникова Ульяна Викторовна</t>
+    <t>Браздникова Ульяна Викторовна</t>
   </si>
   <si>
-    <t xml:space="preserve">Букин Андрей Владимирович</t>
+    <t>Букин Андрей Владимирович</t>
   </si>
   <si>
-    <t xml:space="preserve">Волков Георгий Васильевич</t>
+    <t>Волков Георгий Васильевич</t>
   </si>
   <si>
-    <t xml:space="preserve">Григорян Виктория Рубеновна</t>
+    <t>Григорян Виктория Рубеновна</t>
   </si>
   <si>
-    <t xml:space="preserve">Губанова Полина Сергеевна</t>
+    <t>Губанова Полина Сергеевна</t>
   </si>
   <si>
-    <t xml:space="preserve">Данилов Руслан Игоревич</t>
+    <t>Данилов Руслан Игоревич</t>
   </si>
   <si>
-    <t xml:space="preserve">Деева Александра Андреевна</t>
+    <t>Деева Александра Андреевна</t>
   </si>
   <si>
-    <t xml:space="preserve">Евдокимова Наталья Николаевна</t>
+    <t>Евдокимова Наталья Николаевна</t>
   </si>
   <si>
-    <t xml:space="preserve">Жуковская Кира Леонидовна</t>
+    <t>Жуковская Кира Леонидовна</t>
   </si>
   <si>
-    <t xml:space="preserve">Иевлева Валерия Андреевна</t>
+    <t>Иевлева Валерия Андреевна</t>
   </si>
   <si>
-    <t xml:space="preserve">Капкова Мария Александровна</t>
+    <t>Капкова Мария Александровна</t>
   </si>
   <si>
-    <t xml:space="preserve">Каргинова Анна Евгеньевна</t>
+    <t>Каргинова Анна Евгеньевна</t>
   </si>
   <si>
-    <t xml:space="preserve">Кин Александр Алексеевич</t>
+    <t>Кин Александр Алексеевич</t>
   </si>
   <si>
-    <t xml:space="preserve">Козлова Мария Сергеевна</t>
+    <t>Козлова Мария Сергеевна</t>
   </si>
   <si>
-    <t xml:space="preserve">Косарева Олеся Алексеевна</t>
+    <t>Косарева Олеся Алексеевна</t>
   </si>
   <si>
-    <t xml:space="preserve">Кубрак Катерина Вадимовна</t>
+    <t>Кубрак Катерина Вадимовна</t>
   </si>
   <si>
-    <t xml:space="preserve">Левин Ефим Михайлович</t>
+    <t>Левин Ефим Михайлович</t>
   </si>
   <si>
-    <t xml:space="preserve">Ли Тимофей Александрович</t>
+    <t>Ли Тимофей Александрович</t>
   </si>
   <si>
-    <t xml:space="preserve">Мазурова Варвара Владимировна</t>
+    <t>Мазурова Варвара Владимировна</t>
   </si>
   <si>
-    <t xml:space="preserve">Печникова Галина Сергеевна</t>
+    <t>Печникова Галина Сергеевна</t>
   </si>
   <si>
-    <t xml:space="preserve">Пужаев Илия Юрьевич</t>
+    <t>Пужаев Илия Юрьевич</t>
   </si>
   <si>
-    <t xml:space="preserve">Разин Денис Валерьевич</t>
+    <t>Разин Денис Валерьевич</t>
   </si>
   <si>
-    <t xml:space="preserve">Ракитина Наталия Андреевна</t>
+    <t>Ракитина Наталия Андреевна</t>
   </si>
   <si>
-    <t xml:space="preserve">Рудый Всеволод Вадимович</t>
+    <t>Рудый Всеволод Вадимович</t>
   </si>
   <si>
-    <t xml:space="preserve">Святловская София Владимировна</t>
+    <t>Святловская София Владимировна</t>
   </si>
   <si>
-    <t xml:space="preserve">Смолярова Юлия Дмитриевна</t>
+    <t>Смолярова Юлия Дмитриевна</t>
   </si>
   <si>
-    <t xml:space="preserve">Сокова Анастасия Алексеевна</t>
+    <t>Сокова Анастасия Алексеевна</t>
   </si>
   <si>
-    <t xml:space="preserve">Солопова Елена Валерьевна</t>
+    <t>Солопова Елена Валерьевна</t>
   </si>
   <si>
-    <t xml:space="preserve">Сонькин Михаил Викторович</t>
+    <t>Сонькин Михаил Викторович</t>
   </si>
   <si>
-    <t xml:space="preserve">Спасенкова Арина Владимировна</t>
+    <t>Спасенкова Арина Владимировна</t>
   </si>
   <si>
-    <t xml:space="preserve">Стрелкова Марья Михайловна</t>
+    <t>Стрелкова Марья Михайловна</t>
   </si>
   <si>
-    <t xml:space="preserve">Титкова Александра Сергеевна</t>
+    <t>Титкова Александра Сергеевна</t>
   </si>
   <si>
-    <t xml:space="preserve">Тиунова Ольга Никитична</t>
+    <t>Тиунова Ольга Никитична</t>
   </si>
   <si>
-    <t xml:space="preserve">Тюняткин Андрей Александрович</t>
+    <t>Тюняткин Андрей Александрович</t>
   </si>
   <si>
-    <t xml:space="preserve">Уманский Вениамин Алексеевич</t>
+    <t>Уманский Вениамин Алексеевич</t>
   </si>
   <si>
-    <t xml:space="preserve">Халитова Эльмира Тимуровна</t>
+    <t>Халитова Эльмира Тимуровна</t>
   </si>
   <si>
-    <t xml:space="preserve">Хаханова Маргарита Сергеевна</t>
+    <t>Хаханова Маргарита Сергеевна</t>
   </si>
   <si>
-    <t xml:space="preserve">Чернышев Артём Кириллович</t>
+    <t>Чернышев Артём Кириллович</t>
   </si>
   <si>
-    <t xml:space="preserve">Шашкин Иван Александрович</t>
+    <t>Шашкин Иван Александрович</t>
   </si>
   <si>
-    <t xml:space="preserve">Шерстнева Мария Ивановна</t>
+    <t>Шерстнева Мария Ивановна</t>
   </si>
   <si>
-    <t xml:space="preserve">Элиович Алиса Александровна</t>
+    <t>Элиович Алиса Александровна</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D\-M"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\-m"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="15"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFF4CCCC"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -320,7 +300,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -328,113 +308,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -493,1544 +402,1817 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:NE58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK58"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="EP3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="EP1" activeCellId="0" sqref="EP1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GP17" activeCellId="0" sqref="GP17:GY28"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="NE26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="EP1" sqref="EP1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:NE53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="369" min="4" style="1" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="994" min="370" style="3" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="995" style="1" width="12.8265306122449"/>
+    <col min="1" max="1" width="23.44140625" style="4"/>
+    <col min="2" max="2" width="6.109375" style="5"/>
+    <col min="3" max="3" width="3.88671875" style="4"/>
+    <col min="4" max="369" width="3.5546875" style="4"/>
+    <col min="370" max="994" width="12.77734375" style="6"/>
+    <col min="995" max="1025" width="12.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="7" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="7"/>
-      <c r="BG1" s="7"/>
-      <c r="BH1" s="7"/>
-      <c r="BI1" s="7"/>
-      <c r="BJ1" s="7"/>
-      <c r="BK1" s="7"/>
-      <c r="BL1" s="7"/>
-      <c r="BM1" s="6" t="s">
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
-      <c r="BZ1" s="6"/>
-      <c r="CA1" s="6"/>
-      <c r="CB1" s="6"/>
-      <c r="CC1" s="6"/>
-      <c r="CD1" s="6"/>
-      <c r="CE1" s="6"/>
-      <c r="CF1" s="6"/>
-      <c r="CG1" s="6"/>
-      <c r="CH1" s="6"/>
-      <c r="CI1" s="6"/>
-      <c r="CJ1" s="6"/>
-      <c r="CK1" s="6"/>
-      <c r="CL1" s="6"/>
-      <c r="CM1" s="6"/>
-      <c r="CN1" s="6"/>
-      <c r="CO1" s="6"/>
-      <c r="CP1" s="6"/>
-      <c r="CQ1" s="6" t="s">
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3"/>
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3"/>
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3"/>
+      <c r="CA1" s="3"/>
+      <c r="CB1" s="3"/>
+      <c r="CC1" s="3"/>
+      <c r="CD1" s="3"/>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="3"/>
+      <c r="CG1" s="3"/>
+      <c r="CH1" s="3"/>
+      <c r="CI1" s="3"/>
+      <c r="CJ1" s="3"/>
+      <c r="CK1" s="3"/>
+      <c r="CL1" s="3"/>
+      <c r="CM1" s="3"/>
+      <c r="CN1" s="3"/>
+      <c r="CO1" s="3"/>
+      <c r="CP1" s="3"/>
+      <c r="CQ1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="CR1" s="6"/>
-      <c r="CS1" s="6"/>
-      <c r="CT1" s="6"/>
-      <c r="CU1" s="6"/>
-      <c r="CV1" s="6"/>
-      <c r="CW1" s="6"/>
-      <c r="CX1" s="6"/>
-      <c r="CY1" s="6"/>
-      <c r="CZ1" s="6"/>
-      <c r="DA1" s="6"/>
-      <c r="DB1" s="6"/>
-      <c r="DC1" s="6"/>
-      <c r="DD1" s="6"/>
-      <c r="DE1" s="6"/>
-      <c r="DF1" s="6"/>
-      <c r="DG1" s="6"/>
-      <c r="DH1" s="6"/>
-      <c r="DI1" s="6"/>
-      <c r="DJ1" s="6"/>
-      <c r="DK1" s="6"/>
-      <c r="DL1" s="6"/>
-      <c r="DM1" s="6"/>
-      <c r="DN1" s="6"/>
-      <c r="DO1" s="6"/>
-      <c r="DP1" s="6"/>
-      <c r="DQ1" s="6"/>
-      <c r="DR1" s="6"/>
-      <c r="DS1" s="6"/>
-      <c r="DT1" s="6"/>
-      <c r="DU1" s="6"/>
-      <c r="DV1" s="8" t="s">
+      <c r="CR1" s="3"/>
+      <c r="CS1" s="3"/>
+      <c r="CT1" s="3"/>
+      <c r="CU1" s="3"/>
+      <c r="CV1" s="3"/>
+      <c r="CW1" s="3"/>
+      <c r="CX1" s="3"/>
+      <c r="CY1" s="3"/>
+      <c r="CZ1" s="3"/>
+      <c r="DA1" s="3"/>
+      <c r="DB1" s="3"/>
+      <c r="DC1" s="3"/>
+      <c r="DD1" s="3"/>
+      <c r="DE1" s="3"/>
+      <c r="DF1" s="3"/>
+      <c r="DG1" s="3"/>
+      <c r="DH1" s="3"/>
+      <c r="DI1" s="3"/>
+      <c r="DJ1" s="3"/>
+      <c r="DK1" s="3"/>
+      <c r="DL1" s="3"/>
+      <c r="DM1" s="3"/>
+      <c r="DN1" s="3"/>
+      <c r="DO1" s="3"/>
+      <c r="DP1" s="3"/>
+      <c r="DQ1" s="3"/>
+      <c r="DR1" s="3"/>
+      <c r="DS1" s="3"/>
+      <c r="DT1" s="3"/>
+      <c r="DU1" s="3"/>
+      <c r="DV1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="DW1" s="8"/>
-      <c r="DX1" s="8"/>
-      <c r="DY1" s="8"/>
-      <c r="DZ1" s="8"/>
-      <c r="EA1" s="8"/>
-      <c r="EB1" s="8"/>
-      <c r="EC1" s="8"/>
-      <c r="ED1" s="8"/>
-      <c r="EE1" s="8"/>
-      <c r="EF1" s="8"/>
-      <c r="EG1" s="8"/>
-      <c r="EH1" s="8"/>
-      <c r="EI1" s="8"/>
-      <c r="EJ1" s="8"/>
-      <c r="EK1" s="8"/>
-      <c r="EL1" s="8"/>
-      <c r="EM1" s="8"/>
-      <c r="EN1" s="8"/>
-      <c r="EO1" s="8"/>
-      <c r="EP1" s="8"/>
-      <c r="EQ1" s="8"/>
-      <c r="ER1" s="8"/>
-      <c r="ES1" s="8"/>
-      <c r="ET1" s="8"/>
-      <c r="EU1" s="8"/>
-      <c r="EV1" s="8"/>
-      <c r="EW1" s="8"/>
-      <c r="EX1" s="8"/>
-      <c r="EY1" s="8"/>
-      <c r="EZ1" s="8"/>
-      <c r="FA1" s="8" t="s">
+      <c r="DW1" s="1"/>
+      <c r="DX1" s="1"/>
+      <c r="DY1" s="1"/>
+      <c r="DZ1" s="1"/>
+      <c r="EA1" s="1"/>
+      <c r="EB1" s="1"/>
+      <c r="EC1" s="1"/>
+      <c r="ED1" s="1"/>
+      <c r="EE1" s="1"/>
+      <c r="EF1" s="1"/>
+      <c r="EG1" s="1"/>
+      <c r="EH1" s="1"/>
+      <c r="EI1" s="1"/>
+      <c r="EJ1" s="1"/>
+      <c r="EK1" s="1"/>
+      <c r="EL1" s="1"/>
+      <c r="EM1" s="1"/>
+      <c r="EN1" s="1"/>
+      <c r="EO1" s="1"/>
+      <c r="EP1" s="1"/>
+      <c r="EQ1" s="1"/>
+      <c r="ER1" s="1"/>
+      <c r="ES1" s="1"/>
+      <c r="ET1" s="1"/>
+      <c r="EU1" s="1"/>
+      <c r="EV1" s="1"/>
+      <c r="EW1" s="1"/>
+      <c r="EX1" s="1"/>
+      <c r="EY1" s="1"/>
+      <c r="EZ1" s="1"/>
+      <c r="FA1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="FB1" s="8"/>
-      <c r="FC1" s="8"/>
-      <c r="FD1" s="8"/>
-      <c r="FE1" s="8"/>
-      <c r="FF1" s="8"/>
-      <c r="FG1" s="8"/>
-      <c r="FH1" s="8"/>
-      <c r="FI1" s="8"/>
-      <c r="FJ1" s="8"/>
-      <c r="FK1" s="8"/>
-      <c r="FL1" s="8"/>
-      <c r="FM1" s="8"/>
-      <c r="FN1" s="8"/>
-      <c r="FO1" s="8"/>
-      <c r="FP1" s="8"/>
-      <c r="FQ1" s="8"/>
-      <c r="FR1" s="8"/>
-      <c r="FS1" s="8"/>
-      <c r="FT1" s="8"/>
-      <c r="FU1" s="8"/>
-      <c r="FV1" s="8"/>
-      <c r="FW1" s="8"/>
-      <c r="FX1" s="8"/>
-      <c r="FY1" s="8"/>
-      <c r="FZ1" s="8"/>
-      <c r="GA1" s="8"/>
-      <c r="GB1" s="8"/>
-      <c r="GC1" s="8"/>
-      <c r="GD1" s="8" t="s">
+      <c r="FB1" s="1"/>
+      <c r="FC1" s="1"/>
+      <c r="FD1" s="1"/>
+      <c r="FE1" s="1"/>
+      <c r="FF1" s="1"/>
+      <c r="FG1" s="1"/>
+      <c r="FH1" s="1"/>
+      <c r="FI1" s="1"/>
+      <c r="FJ1" s="1"/>
+      <c r="FK1" s="1"/>
+      <c r="FL1" s="1"/>
+      <c r="FM1" s="1"/>
+      <c r="FN1" s="1"/>
+      <c r="FO1" s="1"/>
+      <c r="FP1" s="1"/>
+      <c r="FQ1" s="1"/>
+      <c r="FR1" s="1"/>
+      <c r="FS1" s="1"/>
+      <c r="FT1" s="1"/>
+      <c r="FU1" s="1"/>
+      <c r="FV1" s="1"/>
+      <c r="FW1" s="1"/>
+      <c r="FX1" s="1"/>
+      <c r="FY1" s="1"/>
+      <c r="FZ1" s="1"/>
+      <c r="GA1" s="1"/>
+      <c r="GB1" s="1"/>
+      <c r="GC1" s="1"/>
+      <c r="GD1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="GE1" s="8"/>
-      <c r="GF1" s="8"/>
-      <c r="GG1" s="8"/>
-      <c r="GH1" s="8"/>
-      <c r="GI1" s="8"/>
-      <c r="GJ1" s="8"/>
-      <c r="GK1" s="8"/>
-      <c r="GL1" s="8"/>
-      <c r="GM1" s="8"/>
-      <c r="GN1" s="8"/>
-      <c r="GO1" s="8"/>
-      <c r="GP1" s="8"/>
-      <c r="GQ1" s="8"/>
-      <c r="GR1" s="8"/>
-      <c r="GS1" s="8"/>
-      <c r="GT1" s="8"/>
-      <c r="GU1" s="8"/>
-      <c r="GV1" s="8"/>
-      <c r="GW1" s="8"/>
-      <c r="GX1" s="8"/>
-      <c r="GY1" s="8"/>
-      <c r="GZ1" s="8"/>
-      <c r="HA1" s="8"/>
-      <c r="HB1" s="8"/>
-      <c r="HC1" s="8"/>
-      <c r="HD1" s="8"/>
-      <c r="HE1" s="8"/>
-      <c r="HF1" s="8"/>
-      <c r="HG1" s="8"/>
-      <c r="HH1" s="8"/>
-      <c r="HI1" s="8" t="s">
+      <c r="GE1" s="1"/>
+      <c r="GF1" s="1"/>
+      <c r="GG1" s="1"/>
+      <c r="GH1" s="1"/>
+      <c r="GI1" s="1"/>
+      <c r="GJ1" s="1"/>
+      <c r="GK1" s="1"/>
+      <c r="GL1" s="1"/>
+      <c r="GM1" s="1"/>
+      <c r="GN1" s="1"/>
+      <c r="GO1" s="1"/>
+      <c r="GP1" s="1"/>
+      <c r="GQ1" s="1"/>
+      <c r="GR1" s="1"/>
+      <c r="GS1" s="1"/>
+      <c r="GT1" s="1"/>
+      <c r="GU1" s="1"/>
+      <c r="GV1" s="1"/>
+      <c r="GW1" s="1"/>
+      <c r="GX1" s="1"/>
+      <c r="GY1" s="1"/>
+      <c r="GZ1" s="1"/>
+      <c r="HA1" s="1"/>
+      <c r="HB1" s="1"/>
+      <c r="HC1" s="1"/>
+      <c r="HD1" s="1"/>
+      <c r="HE1" s="1"/>
+      <c r="HF1" s="1"/>
+      <c r="HG1" s="1"/>
+      <c r="HH1" s="1"/>
+      <c r="HI1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="HJ1" s="8"/>
-      <c r="HK1" s="8"/>
-      <c r="HL1" s="8"/>
-      <c r="HM1" s="8"/>
-      <c r="HN1" s="8"/>
-      <c r="HO1" s="8"/>
-      <c r="HP1" s="8"/>
-      <c r="HQ1" s="8"/>
-      <c r="HR1" s="8"/>
-      <c r="HS1" s="8"/>
-      <c r="HT1" s="8"/>
-      <c r="HU1" s="8"/>
-      <c r="HV1" s="8"/>
-      <c r="HW1" s="8"/>
-      <c r="HX1" s="8"/>
-      <c r="HY1" s="8"/>
-      <c r="HZ1" s="8"/>
-      <c r="IA1" s="8"/>
-      <c r="IB1" s="8"/>
-      <c r="IC1" s="8"/>
-      <c r="ID1" s="8"/>
-      <c r="IE1" s="8"/>
-      <c r="IF1" s="8"/>
-      <c r="IG1" s="8"/>
-      <c r="IH1" s="8"/>
-      <c r="II1" s="8"/>
-      <c r="IJ1" s="8"/>
-      <c r="IK1" s="8"/>
-      <c r="IL1" s="8"/>
-      <c r="IM1" s="7" t="s">
+      <c r="HJ1" s="1"/>
+      <c r="HK1" s="1"/>
+      <c r="HL1" s="1"/>
+      <c r="HM1" s="1"/>
+      <c r="HN1" s="1"/>
+      <c r="HO1" s="1"/>
+      <c r="HP1" s="1"/>
+      <c r="HQ1" s="1"/>
+      <c r="HR1" s="1"/>
+      <c r="HS1" s="1"/>
+      <c r="HT1" s="1"/>
+      <c r="HU1" s="1"/>
+      <c r="HV1" s="1"/>
+      <c r="HW1" s="1"/>
+      <c r="HX1" s="1"/>
+      <c r="HY1" s="1"/>
+      <c r="HZ1" s="1"/>
+      <c r="IA1" s="1"/>
+      <c r="IB1" s="1"/>
+      <c r="IC1" s="1"/>
+      <c r="ID1" s="1"/>
+      <c r="IE1" s="1"/>
+      <c r="IF1" s="1"/>
+      <c r="IG1" s="1"/>
+      <c r="IH1" s="1"/>
+      <c r="II1" s="1"/>
+      <c r="IJ1" s="1"/>
+      <c r="IK1" s="1"/>
+      <c r="IL1" s="1"/>
+      <c r="IM1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="IN1" s="7"/>
-      <c r="IO1" s="7"/>
-      <c r="IP1" s="7"/>
-      <c r="IQ1" s="7"/>
-      <c r="IR1" s="7"/>
-      <c r="IS1" s="7"/>
-      <c r="IT1" s="7"/>
-      <c r="IU1" s="7"/>
-      <c r="IV1" s="7"/>
-      <c r="IW1" s="7"/>
-      <c r="IX1" s="7"/>
-      <c r="IY1" s="7"/>
-      <c r="IZ1" s="7"/>
-      <c r="JA1" s="7"/>
-      <c r="JB1" s="7"/>
-      <c r="JC1" s="7"/>
-      <c r="JD1" s="7"/>
-      <c r="JE1" s="7"/>
-      <c r="JF1" s="7"/>
-      <c r="JG1" s="7"/>
-      <c r="JH1" s="7"/>
-      <c r="JI1" s="7"/>
-      <c r="JJ1" s="7"/>
-      <c r="JK1" s="7"/>
-      <c r="JL1" s="7"/>
-      <c r="JM1" s="7"/>
-      <c r="JN1" s="7"/>
-      <c r="JO1" s="7"/>
-      <c r="JP1" s="7"/>
-      <c r="JQ1" s="7"/>
-      <c r="JR1" s="7" t="s">
+      <c r="IN1" s="2"/>
+      <c r="IO1" s="2"/>
+      <c r="IP1" s="2"/>
+      <c r="IQ1" s="2"/>
+      <c r="IR1" s="2"/>
+      <c r="IS1" s="2"/>
+      <c r="IT1" s="2"/>
+      <c r="IU1" s="2"/>
+      <c r="IV1" s="2"/>
+      <c r="IW1" s="2"/>
+      <c r="IX1" s="2"/>
+      <c r="IY1" s="2"/>
+      <c r="IZ1" s="2"/>
+      <c r="JA1" s="2"/>
+      <c r="JB1" s="2"/>
+      <c r="JC1" s="2"/>
+      <c r="JD1" s="2"/>
+      <c r="JE1" s="2"/>
+      <c r="JF1" s="2"/>
+      <c r="JG1" s="2"/>
+      <c r="JH1" s="2"/>
+      <c r="JI1" s="2"/>
+      <c r="JJ1" s="2"/>
+      <c r="JK1" s="2"/>
+      <c r="JL1" s="2"/>
+      <c r="JM1" s="2"/>
+      <c r="JN1" s="2"/>
+      <c r="JO1" s="2"/>
+      <c r="JP1" s="2"/>
+      <c r="JQ1" s="2"/>
+      <c r="JR1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="JS1" s="7"/>
-      <c r="JT1" s="7"/>
-      <c r="JU1" s="7"/>
-      <c r="JV1" s="7"/>
-      <c r="JW1" s="7"/>
-      <c r="JX1" s="7"/>
-      <c r="JY1" s="7"/>
-      <c r="JZ1" s="7"/>
-      <c r="KA1" s="7"/>
-      <c r="KB1" s="7"/>
-      <c r="KC1" s="7"/>
-      <c r="KD1" s="7"/>
-      <c r="KE1" s="7"/>
-      <c r="KF1" s="7"/>
-      <c r="KG1" s="7"/>
-      <c r="KH1" s="7"/>
-      <c r="KI1" s="7"/>
-      <c r="KJ1" s="7"/>
-      <c r="KK1" s="7"/>
-      <c r="KL1" s="7"/>
-      <c r="KM1" s="7"/>
-      <c r="KN1" s="7"/>
-      <c r="KO1" s="7"/>
-      <c r="KP1" s="7"/>
-      <c r="KQ1" s="7"/>
-      <c r="KR1" s="7"/>
-      <c r="KS1" s="7"/>
-      <c r="KT1" s="7"/>
-      <c r="KU1" s="7"/>
-      <c r="KV1" s="7" t="s">
+      <c r="JS1" s="2"/>
+      <c r="JT1" s="2"/>
+      <c r="JU1" s="2"/>
+      <c r="JV1" s="2"/>
+      <c r="JW1" s="2"/>
+      <c r="JX1" s="2"/>
+      <c r="JY1" s="2"/>
+      <c r="JZ1" s="2"/>
+      <c r="KA1" s="2"/>
+      <c r="KB1" s="2"/>
+      <c r="KC1" s="2"/>
+      <c r="KD1" s="2"/>
+      <c r="KE1" s="2"/>
+      <c r="KF1" s="2"/>
+      <c r="KG1" s="2"/>
+      <c r="KH1" s="2"/>
+      <c r="KI1" s="2"/>
+      <c r="KJ1" s="2"/>
+      <c r="KK1" s="2"/>
+      <c r="KL1" s="2"/>
+      <c r="KM1" s="2"/>
+      <c r="KN1" s="2"/>
+      <c r="KO1" s="2"/>
+      <c r="KP1" s="2"/>
+      <c r="KQ1" s="2"/>
+      <c r="KR1" s="2"/>
+      <c r="KS1" s="2"/>
+      <c r="KT1" s="2"/>
+      <c r="KU1" s="2"/>
+      <c r="KV1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="KW1" s="7"/>
-      <c r="KX1" s="7"/>
-      <c r="KY1" s="7"/>
-      <c r="KZ1" s="7"/>
-      <c r="LA1" s="7"/>
-      <c r="LB1" s="7"/>
-      <c r="LC1" s="7"/>
-      <c r="LD1" s="7"/>
-      <c r="LE1" s="7"/>
-      <c r="LF1" s="7"/>
-      <c r="LG1" s="7"/>
-      <c r="LH1" s="7"/>
-      <c r="LI1" s="7"/>
-      <c r="LJ1" s="7"/>
-      <c r="LK1" s="7"/>
-      <c r="LL1" s="7"/>
-      <c r="LM1" s="7"/>
-      <c r="LN1" s="7"/>
-      <c r="LO1" s="7"/>
-      <c r="LP1" s="7"/>
-      <c r="LQ1" s="7"/>
-      <c r="LR1" s="7"/>
-      <c r="LS1" s="7"/>
-      <c r="LT1" s="7"/>
-      <c r="LU1" s="7"/>
-      <c r="LV1" s="7"/>
-      <c r="LW1" s="7"/>
-      <c r="LX1" s="7"/>
-      <c r="LY1" s="7"/>
-      <c r="LZ1" s="7"/>
-      <c r="MA1" s="7" t="s">
+      <c r="KW1" s="2"/>
+      <c r="KX1" s="2"/>
+      <c r="KY1" s="2"/>
+      <c r="KZ1" s="2"/>
+      <c r="LA1" s="2"/>
+      <c r="LB1" s="2"/>
+      <c r="LC1" s="2"/>
+      <c r="LD1" s="2"/>
+      <c r="LE1" s="2"/>
+      <c r="LF1" s="2"/>
+      <c r="LG1" s="2"/>
+      <c r="LH1" s="2"/>
+      <c r="LI1" s="2"/>
+      <c r="LJ1" s="2"/>
+      <c r="LK1" s="2"/>
+      <c r="LL1" s="2"/>
+      <c r="LM1" s="2"/>
+      <c r="LN1" s="2"/>
+      <c r="LO1" s="2"/>
+      <c r="LP1" s="2"/>
+      <c r="LQ1" s="2"/>
+      <c r="LR1" s="2"/>
+      <c r="LS1" s="2"/>
+      <c r="LT1" s="2"/>
+      <c r="LU1" s="2"/>
+      <c r="LV1" s="2"/>
+      <c r="LW1" s="2"/>
+      <c r="LX1" s="2"/>
+      <c r="LY1" s="2"/>
+      <c r="LZ1" s="2"/>
+      <c r="MA1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="MB1" s="7"/>
-      <c r="MC1" s="7"/>
-      <c r="MD1" s="7"/>
-      <c r="ME1" s="7"/>
-      <c r="MF1" s="7"/>
-      <c r="MG1" s="7"/>
-      <c r="MH1" s="7"/>
-      <c r="MI1" s="7"/>
-      <c r="MJ1" s="7"/>
-      <c r="MK1" s="7"/>
-      <c r="ML1" s="7"/>
-      <c r="MM1" s="7"/>
-      <c r="MN1" s="7"/>
-      <c r="MO1" s="7"/>
-      <c r="MP1" s="7"/>
-      <c r="MQ1" s="7"/>
-      <c r="MR1" s="7"/>
-      <c r="MS1" s="7"/>
-      <c r="MT1" s="7"/>
-      <c r="MU1" s="7"/>
-      <c r="MV1" s="7"/>
-      <c r="MW1" s="7"/>
-      <c r="MX1" s="7"/>
-      <c r="MY1" s="7"/>
-      <c r="MZ1" s="7"/>
-      <c r="NA1" s="7"/>
-      <c r="NB1" s="7"/>
-      <c r="NC1" s="7"/>
-      <c r="ND1" s="7"/>
-      <c r="NE1" s="7"/>
+      <c r="MB1" s="2"/>
+      <c r="MC1" s="2"/>
+      <c r="MD1" s="2"/>
+      <c r="ME1" s="2"/>
+      <c r="MF1" s="2"/>
+      <c r="MG1" s="2"/>
+      <c r="MH1" s="2"/>
+      <c r="MI1" s="2"/>
+      <c r="MJ1" s="2"/>
+      <c r="MK1" s="2"/>
+      <c r="ML1" s="2"/>
+      <c r="MM1" s="2"/>
+      <c r="MN1" s="2"/>
+      <c r="MO1" s="2"/>
+      <c r="MP1" s="2"/>
+      <c r="MQ1" s="2"/>
+      <c r="MR1" s="2"/>
+      <c r="MS1" s="2"/>
+      <c r="MT1" s="2"/>
+      <c r="MU1" s="2"/>
+      <c r="MV1" s="2"/>
+      <c r="MW1" s="2"/>
+      <c r="MX1" s="2"/>
+      <c r="MY1" s="2"/>
+      <c r="MZ1" s="2"/>
+      <c r="NA1" s="2"/>
+      <c r="NB1" s="2"/>
+      <c r="NC1" s="2"/>
+      <c r="ND1" s="2"/>
+      <c r="NE1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D2" s="1" t="n">
+    <row r="2" spans="1:369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="4">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="4">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="4">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="4">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="4">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="4">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="4">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="L2" s="4">
         <v>9</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="M2" s="4">
         <v>10</v>
       </c>
-      <c r="N2" s="9" t="n">
+      <c r="N2" s="9">
         <v>11</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="4">
         <v>12</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="4">
         <v>13</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="Q2" s="4">
         <v>14</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="4">
         <v>15</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="4">
         <v>16</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="T2" s="4">
         <v>17</v>
       </c>
-      <c r="U2" s="9" t="n">
+      <c r="U2" s="9">
         <v>18</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="V2" s="4">
         <v>19</v>
       </c>
-      <c r="W2" s="1" t="n">
+      <c r="W2" s="4">
         <v>20</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="X2" s="4">
         <v>21</v>
       </c>
-      <c r="Y2" s="1" t="n">
+      <c r="Y2" s="4">
         <v>22</v>
       </c>
-      <c r="Z2" s="1" t="n">
+      <c r="Z2" s="4">
         <v>23</v>
       </c>
-      <c r="AA2" s="1" t="n">
+      <c r="AA2" s="4">
         <v>24</v>
       </c>
-      <c r="AB2" s="9" t="n">
+      <c r="AB2" s="9">
         <v>25</v>
       </c>
-      <c r="AC2" s="1" t="n">
+      <c r="AC2" s="4">
         <v>26</v>
       </c>
-      <c r="AD2" s="1" t="n">
+      <c r="AD2" s="4">
         <v>27</v>
       </c>
-      <c r="AE2" s="1" t="n">
+      <c r="AE2" s="4">
         <v>28</v>
       </c>
-      <c r="AF2" s="1" t="n">
+      <c r="AF2" s="4">
         <v>29</v>
       </c>
-      <c r="AG2" s="1" t="n">
+      <c r="AG2" s="4">
         <v>30</v>
       </c>
-      <c r="AH2" s="1" t="n">
+      <c r="AH2" s="4">
         <v>1</v>
       </c>
-      <c r="AI2" s="9" t="n">
+      <c r="AI2" s="9">
         <v>2</v>
       </c>
-      <c r="AJ2" s="9" t="n">
+      <c r="AJ2" s="9">
         <v>3</v>
       </c>
-      <c r="AK2" s="9" t="n">
+      <c r="AK2" s="9">
         <v>4</v>
       </c>
-      <c r="AL2" s="9" t="n">
+      <c r="AL2" s="9">
         <v>5</v>
       </c>
-      <c r="AM2" s="9" t="n">
+      <c r="AM2" s="9">
         <v>6</v>
       </c>
-      <c r="AN2" s="9" t="n">
+      <c r="AN2" s="9">
         <v>7</v>
       </c>
-      <c r="AO2" s="9" t="n">
+      <c r="AO2" s="9">
         <v>8</v>
       </c>
-      <c r="AP2" s="9" t="n">
+      <c r="AP2" s="9">
         <v>9</v>
       </c>
-      <c r="AQ2" s="1" t="n">
+      <c r="AQ2" s="4">
         <v>10</v>
       </c>
-      <c r="AR2" s="1" t="n">
+      <c r="AR2" s="4">
         <v>11</v>
       </c>
-      <c r="AS2" s="1" t="n">
+      <c r="AS2" s="4">
         <v>12</v>
       </c>
-      <c r="AT2" s="1" t="n">
+      <c r="AT2" s="4">
         <v>13</v>
       </c>
-      <c r="AU2" s="1" t="n">
+      <c r="AU2" s="4">
         <v>14</v>
       </c>
-      <c r="AV2" s="1" t="n">
+      <c r="AV2" s="4">
         <v>15</v>
       </c>
-      <c r="AW2" s="9" t="n">
+      <c r="AW2" s="9">
         <v>16</v>
       </c>
-      <c r="AX2" s="1" t="n">
+      <c r="AX2" s="4">
         <v>17</v>
       </c>
-      <c r="AY2" s="1" t="n">
+      <c r="AY2" s="4">
         <v>18</v>
       </c>
-      <c r="AZ2" s="1" t="n">
+      <c r="AZ2" s="4">
         <v>19</v>
       </c>
-      <c r="BA2" s="1" t="n">
+      <c r="BA2" s="4">
         <v>20</v>
       </c>
-      <c r="BB2" s="1" t="n">
+      <c r="BB2" s="4">
         <v>21</v>
       </c>
-      <c r="BC2" s="1" t="n">
+      <c r="BC2" s="4">
         <v>22</v>
       </c>
-      <c r="BD2" s="9" t="n">
+      <c r="BD2" s="9">
         <v>23</v>
       </c>
-      <c r="BE2" s="1" t="n">
+      <c r="BE2" s="4">
         <v>24</v>
       </c>
-      <c r="BF2" s="1" t="n">
+      <c r="BF2" s="4">
         <v>25</v>
       </c>
-      <c r="BG2" s="1" t="n">
+      <c r="BG2" s="4">
         <v>26</v>
       </c>
-      <c r="BH2" s="1" t="n">
+      <c r="BH2" s="4">
         <v>27</v>
       </c>
-      <c r="BI2" s="1" t="n">
+      <c r="BI2" s="4">
         <v>28</v>
       </c>
-      <c r="BJ2" s="1" t="n">
+      <c r="BJ2" s="4">
         <v>29</v>
       </c>
-      <c r="BK2" s="9" t="n">
+      <c r="BK2" s="9">
         <v>30</v>
       </c>
-      <c r="BL2" s="1" t="n">
+      <c r="BL2" s="4">
         <v>31</v>
       </c>
-      <c r="BM2" s="1" t="n">
+      <c r="BM2" s="4">
         <v>1</v>
       </c>
-      <c r="BN2" s="1" t="n">
+      <c r="BN2" s="4">
         <v>2</v>
       </c>
-      <c r="BO2" s="1" t="n">
+      <c r="BO2" s="4">
         <v>3</v>
       </c>
-      <c r="BP2" s="9" t="n">
+      <c r="BP2" s="9">
         <v>4</v>
       </c>
-      <c r="BQ2" s="1" t="n">
+      <c r="BQ2" s="4">
         <v>5</v>
       </c>
-      <c r="BR2" s="9" t="n">
+      <c r="BR2" s="9">
         <v>6</v>
       </c>
-      <c r="BS2" s="1" t="n">
+      <c r="BS2" s="4">
         <v>7</v>
       </c>
-      <c r="BT2" s="1" t="n">
+      <c r="BT2" s="4">
         <v>8</v>
       </c>
-      <c r="BU2" s="1" t="n">
+      <c r="BU2" s="4">
         <v>9</v>
       </c>
-      <c r="BV2" s="1" t="n">
+      <c r="BV2" s="4">
         <v>10</v>
       </c>
-      <c r="BW2" s="1" t="n">
+      <c r="BW2" s="4">
         <v>11</v>
       </c>
-      <c r="BX2" s="1" t="n">
+      <c r="BX2" s="4">
         <v>12</v>
       </c>
-      <c r="BY2" s="9" t="n">
+      <c r="BY2" s="9">
         <v>13</v>
       </c>
-      <c r="BZ2" s="9" t="n">
+      <c r="BZ2" s="9">
         <v>14</v>
       </c>
-      <c r="CA2" s="9" t="n">
+      <c r="CA2" s="9">
         <v>15</v>
       </c>
-      <c r="CB2" s="9" t="n">
+      <c r="CB2" s="9">
         <v>16</v>
       </c>
-      <c r="CC2" s="9" t="n">
+      <c r="CC2" s="9">
         <v>17</v>
       </c>
-      <c r="CD2" s="9" t="n">
+      <c r="CD2" s="9">
         <v>18</v>
       </c>
-      <c r="CE2" s="9" t="n">
+      <c r="CE2" s="9">
         <v>19</v>
       </c>
-      <c r="CF2" s="9" t="n">
+      <c r="CF2" s="9">
         <v>20</v>
       </c>
-      <c r="CG2" s="1" t="n">
+      <c r="CG2" s="4">
         <v>21</v>
       </c>
-      <c r="CH2" s="1" t="n">
+      <c r="CH2" s="4">
         <v>22</v>
       </c>
-      <c r="CI2" s="1" t="n">
+      <c r="CI2" s="4">
         <v>23</v>
       </c>
-      <c r="CJ2" s="1" t="n">
+      <c r="CJ2" s="4">
         <v>24</v>
       </c>
-      <c r="CK2" s="1" t="n">
+      <c r="CK2" s="4">
         <v>25</v>
       </c>
-      <c r="CL2" s="1" t="n">
+      <c r="CL2" s="4">
         <v>26</v>
       </c>
-      <c r="CM2" s="9" t="n">
+      <c r="CM2" s="9">
         <v>27</v>
       </c>
-      <c r="CN2" s="1" t="n">
+      <c r="CN2" s="4">
         <v>28</v>
       </c>
-      <c r="CO2" s="1" t="n">
+      <c r="CO2" s="4">
         <v>29</v>
       </c>
-      <c r="CP2" s="1" t="n">
+      <c r="CP2" s="4">
         <v>30</v>
       </c>
-      <c r="CQ2" s="1" t="n">
+      <c r="CQ2" s="4">
         <v>1</v>
       </c>
-      <c r="CR2" s="1" t="n">
+      <c r="CR2" s="4">
         <v>2</v>
       </c>
-      <c r="CS2" s="1" t="n">
+      <c r="CS2" s="4">
         <v>3</v>
       </c>
-      <c r="CT2" s="9" t="n">
+      <c r="CT2" s="9">
         <v>4</v>
       </c>
-      <c r="CU2" s="1" t="n">
+      <c r="CU2" s="4">
         <v>5</v>
       </c>
-      <c r="CV2" s="1" t="n">
+      <c r="CV2" s="4">
         <v>6</v>
       </c>
-      <c r="CW2" s="1" t="n">
+      <c r="CW2" s="4">
         <v>7</v>
       </c>
-      <c r="CX2" s="1" t="n">
+      <c r="CX2" s="4">
         <v>8</v>
       </c>
-      <c r="CY2" s="1" t="n">
+      <c r="CY2" s="4">
         <v>9</v>
       </c>
-      <c r="CZ2" s="1" t="n">
+      <c r="CZ2" s="4">
         <v>10</v>
       </c>
-      <c r="DA2" s="9" t="n">
+      <c r="DA2" s="9">
         <v>11</v>
       </c>
-      <c r="DB2" s="1" t="n">
+      <c r="DB2" s="4">
         <v>12</v>
       </c>
-      <c r="DC2" s="1" t="n">
+      <c r="DC2" s="4">
         <v>13</v>
       </c>
-      <c r="DD2" s="1" t="n">
+      <c r="DD2" s="4">
         <v>14</v>
       </c>
-      <c r="DE2" s="1" t="n">
+      <c r="DE2" s="4">
         <v>15</v>
       </c>
-      <c r="DF2" s="1" t="n">
+      <c r="DF2" s="4">
         <v>16</v>
       </c>
-      <c r="DG2" s="1" t="n">
+      <c r="DG2" s="4">
         <v>17</v>
       </c>
-      <c r="DH2" s="9" t="n">
+      <c r="DH2" s="9">
         <v>18</v>
       </c>
-      <c r="DI2" s="1" t="n">
+      <c r="DI2" s="4">
         <v>19</v>
       </c>
-      <c r="DJ2" s="1" t="n">
+      <c r="DJ2" s="4">
         <v>20</v>
       </c>
-      <c r="DK2" s="1" t="n">
+      <c r="DK2" s="4">
         <v>21</v>
       </c>
-      <c r="DL2" s="1" t="n">
+      <c r="DL2" s="4">
         <v>22</v>
       </c>
-      <c r="DM2" s="1" t="n">
+      <c r="DM2" s="4">
         <v>23</v>
       </c>
-      <c r="DN2" s="1" t="n">
+      <c r="DN2" s="4">
         <v>24</v>
       </c>
-      <c r="DO2" s="9" t="n">
+      <c r="DO2" s="9">
         <v>25</v>
       </c>
-      <c r="DP2" s="1" t="n">
+      <c r="DP2" s="4">
         <v>26</v>
       </c>
-      <c r="DQ2" s="1" t="n">
+      <c r="DQ2" s="4">
         <v>27</v>
       </c>
-      <c r="DR2" s="1" t="n">
+      <c r="DR2" s="4">
         <v>28</v>
       </c>
-      <c r="DS2" s="1" t="n">
+      <c r="DS2" s="4">
         <v>29</v>
       </c>
-      <c r="DT2" s="1" t="n">
+      <c r="DT2" s="4">
         <v>30</v>
       </c>
-      <c r="DU2" s="9" t="n">
+      <c r="DU2" s="9">
         <v>31</v>
       </c>
-      <c r="DV2" s="9" t="n">
+      <c r="DV2" s="9">
         <v>1</v>
       </c>
-      <c r="DW2" s="9" t="n">
+      <c r="DW2" s="9">
         <v>2</v>
       </c>
-      <c r="DX2" s="9" t="n">
+      <c r="DX2" s="9">
         <v>3</v>
       </c>
-      <c r="DY2" s="9" t="n">
+      <c r="DY2" s="9">
         <v>4</v>
       </c>
-      <c r="DZ2" s="9" t="n">
+      <c r="DZ2" s="9">
         <v>5</v>
       </c>
-      <c r="EA2" s="9" t="n">
+      <c r="EA2" s="9">
         <v>6</v>
       </c>
-      <c r="EB2" s="9" t="n">
+      <c r="EB2" s="9">
         <v>7</v>
       </c>
-      <c r="EC2" s="9" t="n">
+      <c r="EC2" s="9">
         <v>8</v>
       </c>
-      <c r="ED2" s="9" t="n">
+      <c r="ED2" s="9">
         <v>9</v>
       </c>
-      <c r="EE2" s="1" t="n">
+      <c r="EE2" s="4">
         <v>10</v>
       </c>
-      <c r="EF2" s="1" t="n">
+      <c r="EF2" s="4">
         <v>11</v>
       </c>
-      <c r="EG2" s="1" t="n">
+      <c r="EG2" s="4">
         <v>12</v>
       </c>
-      <c r="EH2" s="1" t="n">
+      <c r="EH2" s="4">
         <v>13</v>
       </c>
-      <c r="EI2" s="1" t="n">
+      <c r="EI2" s="4">
         <v>14</v>
       </c>
-      <c r="EJ2" s="9" t="n">
+      <c r="EJ2" s="9">
         <v>15</v>
       </c>
-      <c r="EK2" s="1" t="n">
+      <c r="EK2" s="4">
         <v>16</v>
       </c>
-      <c r="EL2" s="1" t="n">
+      <c r="EL2" s="4">
         <v>17</v>
       </c>
-      <c r="EM2" s="1" t="n">
+      <c r="EM2" s="4">
         <v>18</v>
       </c>
-      <c r="EN2" s="1" t="n">
+      <c r="EN2" s="4">
         <v>19</v>
       </c>
-      <c r="EO2" s="1" t="n">
+      <c r="EO2" s="4">
         <v>20</v>
       </c>
-      <c r="EP2" s="1" t="n">
+      <c r="EP2" s="4">
         <v>21</v>
       </c>
-      <c r="EQ2" s="9" t="n">
+      <c r="EQ2" s="9">
         <v>22</v>
       </c>
-      <c r="ER2" s="1" t="n">
+      <c r="ER2" s="4">
         <v>23</v>
       </c>
-      <c r="ES2" s="1" t="n">
+      <c r="ES2" s="4">
         <v>24</v>
       </c>
-      <c r="ET2" s="1" t="n">
+      <c r="ET2" s="4">
         <v>25</v>
       </c>
-      <c r="EU2" s="1" t="n">
+      <c r="EU2" s="4">
         <v>26</v>
       </c>
-      <c r="EV2" s="1" t="n">
+      <c r="EV2" s="4">
         <v>27</v>
       </c>
-      <c r="EW2" s="1" t="n">
+      <c r="EW2" s="4">
         <v>28</v>
       </c>
-      <c r="EX2" s="9" t="n">
+      <c r="EX2" s="9">
         <v>29</v>
       </c>
-      <c r="EY2" s="1" t="n">
+      <c r="EY2" s="4">
         <v>30</v>
       </c>
-      <c r="EZ2" s="1" t="n">
+      <c r="EZ2" s="4">
         <v>31</v>
       </c>
-      <c r="FA2" s="1" t="n">
+      <c r="FA2" s="4">
         <v>1</v>
       </c>
-      <c r="FB2" s="1" t="n">
+      <c r="FB2" s="4">
         <v>2</v>
       </c>
-      <c r="FC2" s="1" t="n">
+      <c r="FC2" s="4">
         <v>3</v>
       </c>
-      <c r="FD2" s="1" t="n">
+      <c r="FD2" s="4">
         <v>4</v>
       </c>
-      <c r="FE2" s="9" t="n">
+      <c r="FE2" s="9">
         <v>5</v>
       </c>
-      <c r="FF2" s="1" t="n">
+      <c r="FF2" s="4">
         <v>6</v>
       </c>
-      <c r="FG2" s="1" t="n">
+      <c r="FG2" s="4">
         <v>7</v>
       </c>
-      <c r="FH2" s="1" t="n">
+      <c r="FH2" s="4">
         <v>8</v>
       </c>
-      <c r="FI2" s="1" t="n">
+      <c r="FI2" s="4">
         <v>9</v>
       </c>
-      <c r="FJ2" s="1" t="n">
+      <c r="FJ2" s="4">
         <v>10</v>
       </c>
-      <c r="FK2" s="1" t="n">
+      <c r="FK2" s="4">
         <v>11</v>
       </c>
-      <c r="FL2" s="1" t="n">
+      <c r="FL2" s="4">
         <v>12</v>
       </c>
-      <c r="FM2" s="1" t="n">
+      <c r="FM2" s="4">
         <v>13</v>
       </c>
-      <c r="FN2" s="1" t="n">
+      <c r="FN2" s="4">
         <v>14</v>
       </c>
-      <c r="FO2" s="1" t="n">
+      <c r="FO2" s="4">
         <v>15</v>
       </c>
-      <c r="FP2" s="1" t="n">
+      <c r="FP2" s="4">
         <v>16</v>
       </c>
-      <c r="FQ2" s="1" t="n">
+      <c r="FQ2" s="4">
         <v>17</v>
       </c>
-      <c r="FR2" s="1" t="n">
+      <c r="FR2" s="4">
         <v>18</v>
       </c>
-      <c r="FS2" s="1" t="n">
+      <c r="FS2" s="4">
         <v>19</v>
       </c>
-      <c r="FT2" s="1" t="n">
+      <c r="FT2" s="4">
         <v>20</v>
       </c>
-      <c r="FU2" s="1" t="n">
+      <c r="FU2" s="4">
         <v>21</v>
       </c>
-      <c r="FV2" s="1" t="n">
+      <c r="FV2" s="4">
         <v>22</v>
       </c>
-      <c r="FW2" s="1" t="n">
+      <c r="FW2" s="4">
         <v>23</v>
       </c>
-      <c r="FX2" s="1" t="n">
+      <c r="FX2" s="4">
         <v>24</v>
       </c>
-      <c r="FY2" s="1" t="n">
+      <c r="FY2" s="4">
         <v>25</v>
       </c>
-      <c r="FZ2" s="1" t="n">
+      <c r="FZ2" s="4">
         <v>26</v>
       </c>
-      <c r="GA2" s="1" t="n">
+      <c r="GA2" s="4">
         <v>27</v>
       </c>
-      <c r="GB2" s="1" t="n">
+      <c r="GB2" s="4">
         <v>28</v>
       </c>
-      <c r="GC2" s="1" t="n">
+      <c r="GC2" s="4">
         <v>29</v>
       </c>
-      <c r="GD2" s="1" t="n">
+      <c r="GD2" s="4">
         <v>1</v>
       </c>
-      <c r="GE2" s="1" t="n">
+      <c r="GE2" s="4">
         <v>2</v>
       </c>
-      <c r="GF2" s="1" t="n">
+      <c r="GF2" s="4">
         <v>3</v>
       </c>
-      <c r="GG2" s="1" t="n">
+      <c r="GG2" s="4">
         <v>4</v>
       </c>
-      <c r="GH2" s="1" t="n">
+      <c r="GH2" s="4">
         <v>5</v>
       </c>
-      <c r="GI2" s="1" t="n">
+      <c r="GI2" s="4">
         <v>6</v>
       </c>
-      <c r="GJ2" s="1" t="n">
+      <c r="GJ2" s="4">
         <v>7</v>
       </c>
-      <c r="GK2" s="1" t="n">
+      <c r="GK2" s="4">
         <v>8</v>
       </c>
-      <c r="GL2" s="1" t="n">
+      <c r="GL2" s="4">
         <v>9</v>
       </c>
-      <c r="GM2" s="1" t="n">
+      <c r="GM2" s="4">
         <v>10</v>
       </c>
-      <c r="GN2" s="1" t="n">
+      <c r="GN2" s="4">
         <v>11</v>
       </c>
-      <c r="GO2" s="1" t="n">
+      <c r="GO2" s="4">
         <v>12</v>
       </c>
-      <c r="GP2" s="1" t="n">
+      <c r="GP2" s="4">
         <v>13</v>
       </c>
-      <c r="GQ2" s="1" t="n">
+      <c r="GQ2" s="4">
         <v>14</v>
       </c>
-      <c r="GR2" s="1" t="n">
+      <c r="GR2" s="4">
         <v>15</v>
       </c>
-      <c r="GS2" s="1" t="n">
+      <c r="GS2" s="4">
         <v>16</v>
       </c>
-      <c r="GT2" s="1" t="n">
+      <c r="GT2" s="4">
         <v>17</v>
       </c>
-      <c r="GU2" s="1" t="n">
+      <c r="GU2" s="4">
         <v>18</v>
       </c>
-      <c r="GV2" s="1" t="n">
+      <c r="GV2" s="4">
         <v>19</v>
       </c>
-      <c r="GW2" s="1" t="n">
+      <c r="GW2" s="4">
         <v>20</v>
       </c>
-      <c r="GX2" s="1" t="n">
+      <c r="GX2" s="4">
         <v>21</v>
       </c>
-      <c r="GY2" s="1" t="n">
+      <c r="GY2" s="4">
         <v>22</v>
       </c>
-      <c r="GZ2" s="1" t="n">
+      <c r="GZ2" s="4">
         <v>23</v>
       </c>
-      <c r="HA2" s="1" t="n">
+      <c r="HA2" s="4">
         <v>24</v>
       </c>
-      <c r="HB2" s="1" t="n">
+      <c r="HB2" s="4">
         <v>25</v>
       </c>
-      <c r="HC2" s="1" t="n">
+      <c r="HC2" s="4">
         <v>26</v>
       </c>
-      <c r="HD2" s="1" t="n">
+      <c r="HD2" s="4">
         <v>27</v>
       </c>
-      <c r="HE2" s="1" t="n">
+      <c r="HE2" s="4">
         <v>28</v>
       </c>
-      <c r="HF2" s="1" t="n">
+      <c r="HF2" s="4">
         <v>29</v>
       </c>
-      <c r="HG2" s="1" t="n">
+      <c r="HG2" s="4">
         <v>30</v>
       </c>
-      <c r="HH2" s="1" t="n">
+      <c r="HH2" s="4">
         <v>31</v>
       </c>
-      <c r="HI2" s="1" t="n">
+      <c r="HI2" s="4">
         <v>1</v>
       </c>
-      <c r="HJ2" s="1" t="n">
+      <c r="HJ2" s="4">
         <v>2</v>
       </c>
-      <c r="HK2" s="1" t="n">
+      <c r="HK2" s="4">
         <v>3</v>
       </c>
-      <c r="HL2" s="1" t="n">
+      <c r="HL2" s="4">
         <v>4</v>
       </c>
-      <c r="HM2" s="1" t="n">
+      <c r="HM2" s="4">
         <v>5</v>
       </c>
-      <c r="HN2" s="1" t="n">
+      <c r="HN2" s="4">
         <v>6</v>
       </c>
-      <c r="HO2" s="1" t="n">
+      <c r="HO2" s="4">
         <v>7</v>
       </c>
-      <c r="HP2" s="1" t="n">
+      <c r="HP2" s="4">
         <v>8</v>
       </c>
-      <c r="HQ2" s="1" t="n">
+      <c r="HQ2" s="4">
         <v>9</v>
       </c>
-      <c r="HR2" s="1" t="n">
+      <c r="HR2" s="4">
         <v>10</v>
       </c>
-      <c r="HS2" s="1" t="n">
+      <c r="HS2" s="4">
         <v>11</v>
       </c>
-      <c r="HT2" s="1" t="n">
+      <c r="HT2" s="4">
         <v>12</v>
       </c>
-      <c r="HU2" s="1" t="n">
+      <c r="HU2" s="4">
         <v>13</v>
       </c>
-      <c r="HV2" s="1" t="n">
+      <c r="HV2" s="4">
         <v>14</v>
       </c>
-      <c r="HW2" s="1" t="n">
+      <c r="HW2" s="4">
         <v>15</v>
       </c>
-      <c r="HX2" s="1" t="n">
+      <c r="HX2" s="4">
         <v>16</v>
       </c>
-      <c r="HY2" s="1" t="n">
+      <c r="HY2" s="4">
         <v>17</v>
       </c>
-      <c r="HZ2" s="1" t="n">
+      <c r="HZ2" s="4">
         <v>18</v>
       </c>
-      <c r="IA2" s="1" t="n">
+      <c r="IA2" s="4">
         <v>19</v>
       </c>
-      <c r="IB2" s="1" t="n">
+      <c r="IB2" s="4">
         <v>20</v>
       </c>
-      <c r="IC2" s="1" t="n">
+      <c r="IC2" s="4">
         <v>21</v>
       </c>
-      <c r="ID2" s="1" t="n">
+      <c r="ID2" s="4">
         <v>22</v>
       </c>
-      <c r="IE2" s="1" t="n">
+      <c r="IE2" s="4">
         <v>23</v>
       </c>
-      <c r="IF2" s="1" t="n">
+      <c r="IF2" s="4">
         <v>24</v>
       </c>
-      <c r="IG2" s="1" t="n">
+      <c r="IG2" s="4">
         <v>25</v>
       </c>
-      <c r="IH2" s="1" t="n">
+      <c r="IH2" s="4">
         <v>26</v>
       </c>
-      <c r="II2" s="1" t="n">
+      <c r="II2" s="4">
         <v>27</v>
       </c>
-      <c r="IJ2" s="1" t="n">
+      <c r="IJ2" s="4">
         <v>28</v>
       </c>
-      <c r="IK2" s="1" t="n">
+      <c r="IK2" s="4">
         <v>29</v>
       </c>
-      <c r="IL2" s="1" t="n">
+      <c r="IL2" s="4">
         <v>30</v>
       </c>
-      <c r="IM2" s="1" t="n">
+      <c r="IM2" s="4">
         <v>1</v>
       </c>
-      <c r="IN2" s="1" t="n">
+      <c r="IN2" s="4">
         <v>2</v>
       </c>
-      <c r="IO2" s="1" t="n">
+      <c r="IO2" s="4">
         <v>3</v>
       </c>
-      <c r="IP2" s="1" t="n">
+      <c r="IP2" s="4">
         <v>4</v>
       </c>
-      <c r="IQ2" s="1" t="n">
+      <c r="IQ2" s="4">
         <v>5</v>
       </c>
-      <c r="IR2" s="1" t="n">
+      <c r="IR2" s="4">
         <v>6</v>
       </c>
-      <c r="IS2" s="1" t="n">
+      <c r="IS2" s="4">
         <v>7</v>
       </c>
-      <c r="IT2" s="1" t="n">
+      <c r="IT2" s="4">
         <v>8</v>
       </c>
-      <c r="IU2" s="1" t="n">
+      <c r="IU2" s="4">
         <v>9</v>
       </c>
-      <c r="IV2" s="1" t="n">
+      <c r="IV2" s="4">
         <v>10</v>
       </c>
-      <c r="IW2" s="1" t="n">
+      <c r="IW2" s="4">
         <v>11</v>
       </c>
-      <c r="IX2" s="1" t="n">
+      <c r="IX2" s="4">
         <v>12</v>
       </c>
-      <c r="IY2" s="1" t="n">
+      <c r="IY2" s="4">
         <v>13</v>
       </c>
-      <c r="IZ2" s="1" t="n">
+      <c r="IZ2" s="4">
         <v>14</v>
       </c>
-      <c r="JA2" s="1" t="n">
+      <c r="JA2" s="4">
         <v>15</v>
       </c>
-      <c r="JB2" s="1" t="n">
+      <c r="JB2" s="4">
         <v>16</v>
       </c>
-      <c r="JC2" s="1" t="n">
+      <c r="JC2" s="4">
         <v>17</v>
       </c>
-      <c r="JD2" s="1" t="n">
+      <c r="JD2" s="4">
         <v>18</v>
       </c>
-      <c r="JE2" s="1" t="n">
+      <c r="JE2" s="4">
         <v>19</v>
       </c>
-      <c r="JF2" s="1" t="n">
+      <c r="JF2" s="4">
         <v>20</v>
       </c>
-      <c r="JG2" s="1" t="n">
+      <c r="JG2" s="4">
         <v>21</v>
       </c>
-      <c r="JH2" s="1" t="n">
+      <c r="JH2" s="4">
         <v>22</v>
       </c>
-      <c r="JI2" s="1" t="n">
+      <c r="JI2" s="4">
         <v>23</v>
       </c>
-      <c r="JJ2" s="1" t="n">
+      <c r="JJ2" s="4">
         <v>24</v>
       </c>
-      <c r="JK2" s="1" t="n">
+      <c r="JK2" s="4">
         <v>25</v>
       </c>
-      <c r="JL2" s="1" t="n">
+      <c r="JL2" s="4">
         <v>26</v>
       </c>
-      <c r="JM2" s="1" t="n">
+      <c r="JM2" s="4">
         <v>27</v>
       </c>
-      <c r="JN2" s="1" t="n">
+      <c r="JN2" s="4">
         <v>28</v>
       </c>
-      <c r="JO2" s="1" t="n">
+      <c r="JO2" s="4">
         <v>29</v>
       </c>
-      <c r="JP2" s="1" t="n">
+      <c r="JP2" s="4">
         <v>30</v>
       </c>
-      <c r="JQ2" s="1" t="n">
+      <c r="JQ2" s="4">
         <v>31</v>
       </c>
-      <c r="JR2" s="1" t="n">
+      <c r="JR2" s="4">
         <v>1</v>
       </c>
-      <c r="JS2" s="1" t="n">
+      <c r="JS2" s="4">
         <v>2</v>
       </c>
-      <c r="JT2" s="1" t="n">
+      <c r="JT2" s="4">
         <v>3</v>
       </c>
-      <c r="JU2" s="1" t="n">
+      <c r="JU2" s="4">
         <v>4</v>
       </c>
-      <c r="JV2" s="1" t="n">
+      <c r="JV2" s="4">
         <v>5</v>
       </c>
-      <c r="JW2" s="1" t="n">
+      <c r="JW2" s="4">
         <v>6</v>
       </c>
-      <c r="JX2" s="1" t="n">
+      <c r="JX2" s="4">
         <v>7</v>
       </c>
-      <c r="JY2" s="1" t="n">
+      <c r="JY2" s="4">
         <v>8</v>
       </c>
-      <c r="JZ2" s="1" t="n">
+      <c r="JZ2" s="4">
         <v>9</v>
       </c>
-      <c r="KA2" s="1" t="n">
+      <c r="KA2" s="4">
         <v>10</v>
       </c>
-      <c r="KB2" s="1" t="n">
+      <c r="KB2" s="4">
         <v>11</v>
       </c>
-      <c r="KC2" s="1" t="n">
+      <c r="KC2" s="4">
         <v>12</v>
       </c>
-      <c r="KD2" s="1" t="n">
+      <c r="KD2" s="4">
         <v>13</v>
       </c>
-      <c r="KE2" s="1" t="n">
+      <c r="KE2" s="4">
         <v>14</v>
       </c>
-      <c r="KF2" s="1" t="n">
+      <c r="KF2" s="4">
         <v>15</v>
       </c>
-      <c r="KG2" s="1" t="n">
+      <c r="KG2" s="4">
         <v>16</v>
       </c>
-      <c r="KH2" s="1" t="n">
+      <c r="KH2" s="4">
         <v>17</v>
       </c>
-      <c r="KI2" s="1" t="n">
+      <c r="KI2" s="4">
         <v>18</v>
       </c>
-      <c r="KJ2" s="1" t="n">
+      <c r="KJ2" s="4">
         <v>19</v>
       </c>
-      <c r="KK2" s="1" t="n">
+      <c r="KK2" s="4">
         <v>20</v>
       </c>
-      <c r="KL2" s="1" t="n">
+      <c r="KL2" s="4">
         <v>21</v>
       </c>
-      <c r="KM2" s="1" t="n">
+      <c r="KM2" s="4">
         <v>22</v>
       </c>
-      <c r="KN2" s="1" t="n">
+      <c r="KN2" s="4">
         <v>23</v>
       </c>
-      <c r="KO2" s="1" t="n">
+      <c r="KO2" s="4">
         <v>24</v>
       </c>
-      <c r="KP2" s="1" t="n">
+      <c r="KP2" s="4">
         <v>25</v>
       </c>
-      <c r="KQ2" s="1" t="n">
+      <c r="KQ2" s="4">
         <v>26</v>
       </c>
-      <c r="KR2" s="1" t="n">
+      <c r="KR2" s="4">
         <v>27</v>
       </c>
-      <c r="KS2" s="1" t="n">
+      <c r="KS2" s="4">
         <v>28</v>
       </c>
-      <c r="KT2" s="1" t="n">
+      <c r="KT2" s="4">
         <v>29</v>
       </c>
-      <c r="KU2" s="1" t="n">
+      <c r="KU2" s="4">
         <v>30</v>
       </c>
-      <c r="KV2" s="1" t="n">
+      <c r="KV2" s="4">
         <v>1</v>
       </c>
-      <c r="KW2" s="1" t="n">
+      <c r="KW2" s="4">
         <v>2</v>
       </c>
-      <c r="KX2" s="1" t="n">
+      <c r="KX2" s="4">
         <v>3</v>
       </c>
-      <c r="KY2" s="1" t="n">
+      <c r="KY2" s="4">
         <v>4</v>
       </c>
-      <c r="KZ2" s="1" t="n">
+      <c r="KZ2" s="4">
         <v>5</v>
       </c>
-      <c r="LA2" s="1" t="n">
+      <c r="LA2" s="4">
         <v>6</v>
       </c>
-      <c r="LB2" s="1" t="n">
+      <c r="LB2" s="4">
         <v>7</v>
       </c>
-      <c r="LC2" s="1" t="n">
+      <c r="LC2" s="4">
         <v>8</v>
       </c>
-      <c r="LD2" s="1" t="n">
+      <c r="LD2" s="4">
         <v>9</v>
       </c>
-      <c r="LE2" s="1" t="n">
+      <c r="LE2" s="4">
         <v>10</v>
       </c>
-      <c r="LF2" s="1" t="n">
+      <c r="LF2" s="4">
         <v>11</v>
       </c>
-      <c r="LG2" s="1" t="n">
+      <c r="LG2" s="4">
         <v>12</v>
       </c>
-      <c r="LH2" s="1" t="n">
+      <c r="LH2" s="4">
         <v>13</v>
       </c>
-      <c r="LI2" s="1" t="n">
+      <c r="LI2" s="4">
         <v>14</v>
       </c>
-      <c r="LJ2" s="1" t="n">
+      <c r="LJ2" s="4">
         <v>15</v>
       </c>
-      <c r="LK2" s="1" t="n">
+      <c r="LK2" s="4">
         <v>16</v>
       </c>
-      <c r="LL2" s="1" t="n">
+      <c r="LL2" s="4">
         <v>17</v>
       </c>
-      <c r="LM2" s="1" t="n">
+      <c r="LM2" s="4">
         <v>18</v>
       </c>
-      <c r="LN2" s="1" t="n">
+      <c r="LN2" s="4">
         <v>19</v>
       </c>
-      <c r="LO2" s="1" t="n">
+      <c r="LO2" s="4">
         <v>20</v>
       </c>
-      <c r="LP2" s="1" t="n">
+      <c r="LP2" s="4">
         <v>21</v>
       </c>
-      <c r="LQ2" s="1" t="n">
+      <c r="LQ2" s="4">
         <v>22</v>
       </c>
-      <c r="LR2" s="1" t="n">
+      <c r="LR2" s="4">
         <v>23</v>
       </c>
-      <c r="LS2" s="1" t="n">
+      <c r="LS2" s="4">
         <v>24</v>
       </c>
-      <c r="LT2" s="1" t="n">
+      <c r="LT2" s="4">
         <v>25</v>
       </c>
-      <c r="LU2" s="1" t="n">
+      <c r="LU2" s="4">
         <v>26</v>
       </c>
-      <c r="LV2" s="1" t="n">
+      <c r="LV2" s="4">
         <v>27</v>
       </c>
-      <c r="LW2" s="1" t="n">
+      <c r="LW2" s="4">
         <v>28</v>
       </c>
-      <c r="LX2" s="1" t="n">
+      <c r="LX2" s="4">
         <v>29</v>
       </c>
-      <c r="LY2" s="1" t="n">
+      <c r="LY2" s="4">
         <v>30</v>
       </c>
-      <c r="LZ2" s="1" t="n">
+      <c r="LZ2" s="4">
         <v>31</v>
       </c>
-      <c r="MA2" s="1" t="n">
+      <c r="MA2" s="4">
         <v>1</v>
       </c>
-      <c r="MB2" s="1" t="n">
+      <c r="MB2" s="4">
         <v>2</v>
       </c>
-      <c r="MC2" s="1" t="n">
+      <c r="MC2" s="4">
         <v>3</v>
       </c>
-      <c r="MD2" s="1" t="n">
+      <c r="MD2" s="4">
         <v>4</v>
       </c>
-      <c r="ME2" s="1" t="n">
+      <c r="ME2" s="4">
         <v>5</v>
       </c>
-      <c r="MF2" s="1" t="n">
+      <c r="MF2" s="4">
         <v>6</v>
       </c>
-      <c r="MG2" s="1" t="n">
+      <c r="MG2" s="4">
         <v>7</v>
       </c>
-      <c r="MH2" s="1" t="n">
+      <c r="MH2" s="4">
         <v>8</v>
       </c>
-      <c r="MI2" s="1" t="n">
+      <c r="MI2" s="4">
         <v>9</v>
       </c>
-      <c r="MJ2" s="1" t="n">
+      <c r="MJ2" s="4">
         <v>10</v>
       </c>
-      <c r="MK2" s="1" t="n">
+      <c r="MK2" s="4">
         <v>11</v>
       </c>
-      <c r="ML2" s="1" t="n">
+      <c r="ML2" s="4">
         <v>12</v>
       </c>
-      <c r="MM2" s="1" t="n">
+      <c r="MM2" s="4">
         <v>13</v>
       </c>
-      <c r="MN2" s="1" t="n">
+      <c r="MN2" s="4">
         <v>14</v>
       </c>
-      <c r="MO2" s="1" t="n">
+      <c r="MO2" s="4">
         <v>15</v>
       </c>
-      <c r="MP2" s="1" t="n">
+      <c r="MP2" s="4">
         <v>16</v>
       </c>
-      <c r="MQ2" s="1" t="n">
+      <c r="MQ2" s="4">
         <v>17</v>
       </c>
-      <c r="MR2" s="1" t="n">
+      <c r="MR2" s="4">
         <v>18</v>
       </c>
-      <c r="MS2" s="1" t="n">
+      <c r="MS2" s="4">
         <v>19</v>
       </c>
-      <c r="MT2" s="1" t="n">
+      <c r="MT2" s="4">
         <v>20</v>
       </c>
-      <c r="MU2" s="1" t="n">
+      <c r="MU2" s="4">
         <v>21</v>
       </c>
-      <c r="MV2" s="1" t="n">
+      <c r="MV2" s="4">
         <v>22</v>
       </c>
-      <c r="MW2" s="1" t="n">
+      <c r="MW2" s="4">
         <v>23</v>
       </c>
-      <c r="MX2" s="1" t="n">
+      <c r="MX2" s="4">
         <v>24</v>
       </c>
-      <c r="MY2" s="1" t="n">
+      <c r="MY2" s="4">
         <v>25</v>
       </c>
-      <c r="MZ2" s="1" t="n">
+      <c r="MZ2" s="4">
         <v>26</v>
       </c>
-      <c r="NA2" s="1" t="n">
+      <c r="NA2" s="4">
         <v>27</v>
       </c>
-      <c r="NB2" s="1" t="n">
+      <c r="NB2" s="4">
         <v>28</v>
       </c>
-      <c r="NC2" s="1" t="n">
+      <c r="NC2" s="4">
         <v>29</v>
       </c>
-      <c r="ND2" s="1" t="n">
+      <c r="ND2" s="4">
         <v>30</v>
       </c>
-      <c r="NE2" s="1" t="n">
+      <c r="NE2" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="1" t="n">
-        <f aca="false">COUNTA(H3:JQ3)</f>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C34" si="0">COUNTA(H3:JQ3)</f>
         <v>0</v>
       </c>
       <c r="N3" s="9"/>
@@ -2169,15 +2351,15 @@
       <c r="ND3" s="9"/>
       <c r="NE3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="12">
         <v>42379</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <f aca="false">COUNTA(H4:JQ4)</f>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="9"/>
@@ -2316,15 +2498,15 @@
       <c r="ND4" s="9"/>
       <c r="NE4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="12">
         <v>42379</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <f aca="false">COUNTA(H5:JQ5)</f>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5" s="9"/>
@@ -2463,15 +2645,15 @@
       <c r="ND5" s="9"/>
       <c r="NE5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="12">
         <v>42379</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <f aca="false">COUNTA(H6:JQ6)</f>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N6" s="9"/>
@@ -2610,15 +2792,15 @@
       <c r="ND6" s="9"/>
       <c r="NE6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="12">
         <v>42379</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <f aca="false">COUNTA(H7:JQ7)</f>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N7" s="9"/>
@@ -2757,15 +2939,15 @@
       <c r="ND7" s="9"/>
       <c r="NE7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="12">
         <v>42379</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <f aca="false">COUNTA(H8:JQ8)</f>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N8" s="9"/>
@@ -2904,15 +3086,15 @@
       <c r="ND8" s="9"/>
       <c r="NE8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="12">
         <v>42379</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <f aca="false">COUNTA(H9:JQ9)</f>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9" s="9"/>
@@ -3051,15 +3233,15 @@
       <c r="ND9" s="9"/>
       <c r="NE9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="12">
         <v>42379</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <f aca="false">COUNTA(H10:JQ10)</f>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10" s="9"/>
@@ -3198,15 +3380,15 @@
       <c r="ND10" s="9"/>
       <c r="NE10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="12">
         <v>42379</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <f aca="false">COUNTA(H11:JQ11)</f>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N11" s="9"/>
@@ -3345,15 +3527,15 @@
       <c r="ND11" s="9"/>
       <c r="NE11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:369" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="12">
         <v>42379</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <f aca="false">COUNTA(H12:JQ12)</f>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N12" s="9"/>
@@ -3493,15 +3675,15 @@
       <c r="ND12" s="9"/>
       <c r="NE12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="12" t="n">
+      <c r="B13" s="12">
         <v>42379</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <f aca="false">COUNTA(H13:JQ13)</f>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N13" s="9"/>
@@ -3640,15 +3822,15 @@
       <c r="ND13" s="9"/>
       <c r="NE13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="12" t="n">
+      <c r="B14" s="12">
         <v>42379</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <f aca="false">COUNTA(H14:JQ14)</f>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N14" s="9"/>
@@ -3787,15 +3969,15 @@
       <c r="ND14" s="9"/>
       <c r="NE14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="12" t="n">
+      <c r="B15" s="12">
         <v>42379</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <f aca="false">COUNTA(H15:JQ15)</f>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N15" s="9"/>
@@ -3934,15 +4116,15 @@
       <c r="ND15" s="9"/>
       <c r="NE15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="12" t="n">
+      <c r="B16" s="12">
         <v>42379</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <f aca="false">COUNTA(H16:JQ16)</f>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N16" s="9"/>
@@ -4081,15 +4263,15 @@
       <c r="ND16" s="9"/>
       <c r="NE16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="12" t="n">
+      <c r="B17" s="12">
         <v>42379</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <f aca="false">COUNTA(H17:JQ17)</f>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N17" s="9"/>
@@ -4228,15 +4410,15 @@
       <c r="ND17" s="9"/>
       <c r="NE17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:369" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="12" t="n">
+      <c r="B18" s="12">
         <v>42379</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <f aca="false">COUNTA(H18:JQ18)</f>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="13"/>
@@ -4378,15 +4560,15 @@
       <c r="ND18" s="9"/>
       <c r="NE18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="12" t="n">
+      <c r="B19" s="12">
         <v>42379</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <f aca="false">COUNTA(H19:JQ19)</f>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N19" s="9"/>
@@ -4525,15 +4707,15 @@
       <c r="ND19" s="9"/>
       <c r="NE19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="12" t="n">
+      <c r="B20" s="12">
         <v>42379</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <f aca="false">COUNTA(H20:JQ20)</f>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N20" s="9"/>
@@ -4672,15 +4854,15 @@
       <c r="ND20" s="9"/>
       <c r="NE20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="12" t="n">
+      <c r="B21" s="12">
         <v>42379</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <f aca="false">COUNTA(H21:JQ21)</f>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N21" s="9"/>
@@ -4819,15 +5001,15 @@
       <c r="ND21" s="9"/>
       <c r="NE21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="12" t="n">
+      <c r="B22" s="12">
         <v>42379</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <f aca="false">COUNTA(H22:JQ22)</f>
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N22" s="9"/>
@@ -4966,15 +5148,15 @@
       <c r="ND22" s="9"/>
       <c r="NE22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="12" t="n">
+      <c r="B23" s="12">
         <v>42379</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <f aca="false">COUNTA(H23:JQ23)</f>
+      <c r="C23" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N23" s="9"/>
@@ -5113,15 +5295,15 @@
       <c r="ND23" s="9"/>
       <c r="NE23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="12" t="n">
+      <c r="B24" s="12">
         <v>42379</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <f aca="false">COUNTA(H24:JQ24)</f>
+      <c r="C24" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N24" s="9"/>
@@ -5260,15 +5442,15 @@
       <c r="ND24" s="9"/>
       <c r="NE24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="12" t="n">
+      <c r="B25" s="12">
         <v>42379</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <f aca="false">COUNTA(H25:JQ25)</f>
+      <c r="C25" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N25" s="9"/>
@@ -5407,15 +5589,15 @@
       <c r="ND25" s="9"/>
       <c r="NE25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="12" t="n">
+      <c r="B26" s="12">
         <v>42379</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <f aca="false">COUNTA(H26:JQ26)</f>
+      <c r="C26" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N26" s="9"/>
@@ -5554,15 +5736,15 @@
       <c r="ND26" s="9"/>
       <c r="NE26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="12" t="n">
+      <c r="B27" s="12">
         <v>42379</v>
       </c>
-      <c r="C27" s="16" t="n">
-        <f aca="false">COUNTA(H27:JQ27)</f>
+      <c r="C27" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D27" s="16"/>
@@ -5932,15 +6114,15 @@
       <c r="ND27" s="9"/>
       <c r="NE27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="12" t="n">
+      <c r="B28" s="12">
         <v>42379</v>
       </c>
-      <c r="C28" s="16" t="n">
-        <f aca="false">COUNTA(H28:JQ28)</f>
+      <c r="C28" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D28" s="16"/>
@@ -6310,15 +6492,15 @@
       <c r="ND28" s="9"/>
       <c r="NE28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="12" t="n">
+      <c r="B29" s="12">
         <v>42379</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <f aca="false">COUNTA(H29:JQ29)</f>
+      <c r="C29" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N29" s="9"/>
@@ -6457,15 +6639,15 @@
       <c r="ND29" s="9"/>
       <c r="NE29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:369" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="12" t="n">
+      <c r="B30" s="12">
         <v>42379</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <f aca="false">COUNTA(H30:JQ30)</f>
+      <c r="C30" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N30" s="9"/>
@@ -6605,15 +6787,15 @@
       <c r="ND30" s="9"/>
       <c r="NE30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="12" t="n">
+      <c r="B31" s="12">
         <v>42379</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <f aca="false">COUNTA(H31:JQ31)</f>
+      <c r="C31" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N31" s="9"/>
@@ -6752,15 +6934,15 @@
       <c r="ND31" s="9"/>
       <c r="NE31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="12" t="n">
+      <c r="B32" s="12">
         <v>42379</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <f aca="false">COUNTA(H32:JQ32)</f>
+      <c r="C32" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N32" s="9"/>
@@ -6899,15 +7081,15 @@
       <c r="ND32" s="9"/>
       <c r="NE32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="12" t="n">
+      <c r="B33" s="12">
         <v>42379</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <f aca="false">COUNTA(H33:JQ33)</f>
+      <c r="C33" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N33" s="9"/>
@@ -7046,15 +7228,15 @@
       <c r="ND33" s="9"/>
       <c r="NE33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="12" t="n">
+      <c r="B34" s="12">
         <v>42379</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <f aca="false">COUNTA(H34:JQ34)</f>
+      <c r="C34" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N34" s="9"/>
@@ -7193,15 +7375,15 @@
       <c r="ND34" s="9"/>
       <c r="NE34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="12" t="n">
+      <c r="B35" s="12">
         <v>42379</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <f aca="false">COUNTA(H35:JQ35)</f>
+      <c r="C35" s="4">
+        <f t="shared" ref="C35:C53" si="1">COUNTA(H35:JQ35)</f>
         <v>0</v>
       </c>
       <c r="N35" s="9"/>
@@ -7340,15 +7522,15 @@
       <c r="ND35" s="9"/>
       <c r="NE35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="12" t="n">
+      <c r="B36" s="12">
         <v>42379</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <f aca="false">COUNTA(H36:JQ36)</f>
+      <c r="C36" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N36" s="9"/>
@@ -7487,15 +7669,15 @@
       <c r="ND36" s="9"/>
       <c r="NE36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="12" t="n">
+      <c r="B37" s="12">
         <v>42379</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <f aca="false">COUNTA(H37:JQ37)</f>
+      <c r="C37" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N37" s="9"/>
@@ -7634,15 +7816,15 @@
       <c r="ND37" s="9"/>
       <c r="NE37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="12" t="n">
+      <c r="B38" s="12">
         <v>42379</v>
       </c>
-      <c r="C38" s="1" t="n">
-        <f aca="false">COUNTA(H38:JQ38)</f>
+      <c r="C38" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N38" s="9"/>
@@ -7781,15 +7963,15 @@
       <c r="ND38" s="9"/>
       <c r="NE38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="12" t="n">
+      <c r="B39" s="12">
         <v>42379</v>
       </c>
-      <c r="C39" s="1" t="n">
-        <f aca="false">COUNTA(H39:JQ39)</f>
+      <c r="C39" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N39" s="9"/>
@@ -7928,15 +8110,15 @@
       <c r="ND39" s="9"/>
       <c r="NE39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="12" t="n">
+      <c r="B40" s="12">
         <v>42379</v>
       </c>
-      <c r="C40" s="1" t="n">
-        <f aca="false">COUNTA(H40:JQ40)</f>
+      <c r="C40" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N40" s="9"/>
@@ -8075,15 +8257,15 @@
       <c r="ND40" s="9"/>
       <c r="NE40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="12" t="n">
+      <c r="B41" s="12">
         <v>42379</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <f aca="false">COUNTA(H41:JQ41)</f>
+      <c r="C41" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N41" s="9"/>
@@ -8222,15 +8404,15 @@
       <c r="ND41" s="9"/>
       <c r="NE41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="12" t="n">
+      <c r="B42" s="12">
         <v>42379</v>
       </c>
-      <c r="C42" s="1" t="n">
-        <f aca="false">COUNTA(H42:JQ42)</f>
+      <c r="C42" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N42" s="9"/>
@@ -8369,15 +8551,15 @@
       <c r="ND42" s="9"/>
       <c r="NE42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="12" t="n">
+      <c r="B43" s="12">
         <v>42379</v>
       </c>
-      <c r="C43" s="1" t="n">
-        <f aca="false">COUNTA(H43:JQ43)</f>
+      <c r="C43" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N43" s="9"/>
@@ -8516,15 +8698,15 @@
       <c r="ND43" s="9"/>
       <c r="NE43" s="9"/>
     </row>
-    <row r="44" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="12" t="n">
+      <c r="B44" s="12">
         <v>42379</v>
       </c>
-      <c r="C44" s="1" t="n">
-        <f aca="false">COUNTA(H44:JQ44)</f>
+      <c r="C44" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N44" s="9"/>
@@ -8663,15 +8845,15 @@
       <c r="ND44" s="9"/>
       <c r="NE44" s="9"/>
     </row>
-    <row r="45" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="12" t="n">
+      <c r="B45" s="12">
         <v>42379</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <f aca="false">COUNTA(H45:JQ45)</f>
+      <c r="C45" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N45" s="9"/>
@@ -8810,15 +8992,15 @@
       <c r="ND45" s="9"/>
       <c r="NE45" s="9"/>
     </row>
-    <row r="46" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="12" t="n">
+      <c r="B46" s="12">
         <v>42379</v>
       </c>
-      <c r="C46" s="1" t="n">
-        <f aca="false">COUNTA(H46:JQ46)</f>
+      <c r="C46" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N46" s="9"/>
@@ -8957,15 +9139,15 @@
       <c r="ND46" s="9"/>
       <c r="NE46" s="9"/>
     </row>
-    <row r="47" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="12" t="n">
+      <c r="B47" s="12">
         <v>42379</v>
       </c>
-      <c r="C47" s="1" t="n">
-        <f aca="false">COUNTA(H47:JQ47)</f>
+      <c r="C47" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N47" s="9"/>
@@ -9104,15 +9286,15 @@
       <c r="ND47" s="9"/>
       <c r="NE47" s="9"/>
     </row>
-    <row r="48" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="12" t="n">
+      <c r="B48" s="12">
         <v>42379</v>
       </c>
-      <c r="C48" s="1" t="n">
-        <f aca="false">COUNTA(H48:JQ48)</f>
+      <c r="C48" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N48" s="9"/>
@@ -9251,15 +9433,15 @@
       <c r="ND48" s="9"/>
       <c r="NE48" s="9"/>
     </row>
-    <row r="49" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="12" t="n">
+      <c r="B49" s="12">
         <v>42379</v>
       </c>
-      <c r="C49" s="1" t="n">
-        <f aca="false">COUNTA(H49:JQ49)</f>
+      <c r="C49" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N49" s="9"/>
@@ -9398,15 +9580,15 @@
       <c r="ND49" s="9"/>
       <c r="NE49" s="9"/>
     </row>
-    <row r="50" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="12" t="n">
+      <c r="B50" s="12">
         <v>42379</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <f aca="false">COUNTA(H50:JQ50)</f>
+      <c r="C50" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N50" s="9"/>
@@ -9545,15 +9727,15 @@
       <c r="ND50" s="9"/>
       <c r="NE50" s="9"/>
     </row>
-    <row r="51" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="12" t="n">
+      <c r="B51" s="12">
         <v>42379</v>
       </c>
-      <c r="C51" s="16" t="n">
-        <f aca="false">COUNTA(H51:JQ51)</f>
+      <c r="C51" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D51" s="16"/>
@@ -9923,15 +10105,15 @@
       <c r="ND51" s="9"/>
       <c r="NE51" s="9"/>
     </row>
-    <row r="52" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:369" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="12" t="n">
+      <c r="B52" s="12">
         <v>42379</v>
       </c>
-      <c r="C52" s="16" t="n">
-        <f aca="false">COUNTA(H52:JQ52)</f>
+      <c r="C52" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D52" s="16"/>
@@ -10301,15 +10483,15 @@
       <c r="ND52" s="9"/>
       <c r="NE52" s="9"/>
     </row>
-    <row r="53" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:369" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="12" t="n">
+      <c r="B53" s="12">
         <v>42379</v>
       </c>
-      <c r="C53" s="1" t="n">
-        <f aca="false">COUNTA(H53:JQ53)</f>
+      <c r="C53" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N53" s="9"/>
@@ -10358,7 +10540,7 @@
       <c r="EX53" s="9"/>
       <c r="FE53" s="9"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N54" s="9"/>
       <c r="U54" s="9"/>
       <c r="AB54" s="9"/>
@@ -10403,7 +10585,7 @@
       <c r="EX54" s="9"/>
       <c r="FE54" s="9"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N55" s="9"/>
       <c r="U55" s="9"/>
       <c r="AB55" s="9"/>
@@ -10448,7 +10630,7 @@
       <c r="EX55" s="9"/>
       <c r="FE55" s="9"/>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N56" s="9"/>
       <c r="U56" s="9"/>
       <c r="AB56" s="9"/>
@@ -10493,7 +10675,7 @@
       <c r="EX56" s="9"/>
       <c r="FE56" s="9"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N57" s="9"/>
       <c r="U57" s="9"/>
       <c r="AB57" s="9"/>
@@ -10538,7 +10720,7 @@
       <c r="EX57" s="9"/>
       <c r="FE57" s="9"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N58" s="9"/>
       <c r="U58" s="9"/>
       <c r="AB58" s="9"/>
@@ -10585,25 +10767,20 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="KV1:LZ1"/>
+    <mergeCell ref="MA1:NE1"/>
+    <mergeCell ref="FA1:GC1"/>
+    <mergeCell ref="GD1:HH1"/>
+    <mergeCell ref="HI1:IL1"/>
+    <mergeCell ref="IM1:JQ1"/>
+    <mergeCell ref="JR1:KU1"/>
     <mergeCell ref="D1:AG1"/>
     <mergeCell ref="AH1:BL1"/>
     <mergeCell ref="BM1:CP1"/>
     <mergeCell ref="CQ1:DU1"/>
     <mergeCell ref="DV1:EZ1"/>
-    <mergeCell ref="FA1:GC1"/>
-    <mergeCell ref="GD1:HH1"/>
-    <mergeCell ref="HI1:IL1"/>
-    <mergeCell ref="IM1:JQ1"/>
-    <mergeCell ref="JR1:KU1"/>
-    <mergeCell ref="KV1:LZ1"/>
-    <mergeCell ref="MA1:NE1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>